--- a/data/trans_orig/P25A$medico-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE060B0A-E939-490D-8B62-2ADDBBA0A3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30FFE49B-A017-4199-83AD-EE1BBD30E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DCF8867-C5D1-41A7-839D-385C4196D314}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E3C9E05E-633D-49E5-819E-524A29A05BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="599">
   <si>
-    <t>Población según motivo para dejar de fumar en 2007</t>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -712,7 +712,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según motivo para dejar de fumar en 2012</t>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>28,75%</t>
@@ -1279,7 +1279,7 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>Población según motivo para dejar de fumar en 2016</t>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>25,23%</t>
@@ -2246,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548FE673-8C6D-4E43-809F-1FB831EA28B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517748B6-84AD-4846-A901-5630F3A6FAE1}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3147,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FCD76D-9680-47C0-A512-BDBDFEFF27AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6970C300-8EEA-4B05-A1BE-EBEE0FD553FF}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4048,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489DA84C-C36B-410C-B51B-C519291AF9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC2F0D-B0CF-4721-A2D3-C0321DB28AE4}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
